--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.1194374660025</v>
+        <v>3.667667333333333</v>
       </c>
       <c r="H2">
-        <v>3.1194374660025</v>
+        <v>11.003002</v>
       </c>
       <c r="I2">
-        <v>0.1343837011739123</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="J2">
-        <v>0.1343837011739123</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.12654805480981</v>
+        <v>1.340345333333333</v>
       </c>
       <c r="N2">
-        <v>1.12654805480981</v>
+        <v>4.021036</v>
       </c>
       <c r="O2">
-        <v>0.2965345789034685</v>
+        <v>0.2454623746968832</v>
       </c>
       <c r="P2">
-        <v>0.2965345789034685</v>
+        <v>0.2454623746968832</v>
       </c>
       <c r="Q2">
-        <v>3.514196209425959</v>
+        <v>4.915940794452443</v>
       </c>
       <c r="R2">
-        <v>3.514196209425959</v>
+        <v>44.24346715007199</v>
       </c>
       <c r="S2">
-        <v>0.03984941423909561</v>
+        <v>0.03495720696928211</v>
       </c>
       <c r="T2">
-        <v>0.03984941423909561</v>
+        <v>0.03495720696928211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.1194374660025</v>
+        <v>3.667667333333333</v>
       </c>
       <c r="H3">
-        <v>3.1194374660025</v>
+        <v>11.003002</v>
       </c>
       <c r="I3">
-        <v>0.1343837011739123</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="J3">
-        <v>0.1343837011739123</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.67249642416995</v>
+        <v>2.693938333333334</v>
       </c>
       <c r="N3">
-        <v>2.67249642416995</v>
+        <v>8.081815000000001</v>
       </c>
       <c r="O3">
-        <v>0.7034654210965314</v>
+        <v>0.4933508433550188</v>
       </c>
       <c r="P3">
-        <v>0.7034654210965314</v>
+        <v>0.4933508433550189</v>
       </c>
       <c r="Q3">
-        <v>8.336685473313452</v>
+        <v>9.88046962318111</v>
       </c>
       <c r="R3">
-        <v>8.336685473313452</v>
+        <v>88.92422660862999</v>
       </c>
       <c r="S3">
-        <v>0.09453428693481664</v>
+        <v>0.07025992297568306</v>
       </c>
       <c r="T3">
-        <v>0.09453428693481664</v>
+        <v>0.07025992297568306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.358372815962</v>
+        <v>3.667667333333333</v>
       </c>
       <c r="H4">
-        <v>6.358372815962</v>
+        <v>11.003002</v>
       </c>
       <c r="I4">
-        <v>0.2739153074119934</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="J4">
-        <v>0.2739153074119934</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.12654805480981</v>
+        <v>1.171145666666667</v>
       </c>
       <c r="N4">
-        <v>1.12654805480981</v>
+        <v>3.513437</v>
       </c>
       <c r="O4">
-        <v>0.2965345789034685</v>
+        <v>0.2144762169172057</v>
       </c>
       <c r="P4">
-        <v>0.2965345789034685</v>
+        <v>0.2144762169172058</v>
       </c>
       <c r="Q4">
-        <v>7.163012527577565</v>
+        <v>4.295372704208221</v>
       </c>
       <c r="R4">
-        <v>7.163012527577565</v>
+        <v>38.65835433787399</v>
       </c>
       <c r="S4">
-        <v>0.08122536033862957</v>
+        <v>0.03054435334141093</v>
       </c>
       <c r="T4">
-        <v>0.08122536033862957</v>
+        <v>0.03054435334141093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.358372815962</v>
+        <v>3.667667333333333</v>
       </c>
       <c r="H5">
-        <v>6.358372815962</v>
+        <v>11.003002</v>
       </c>
       <c r="I5">
-        <v>0.2739153074119934</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="J5">
-        <v>0.2739153074119934</v>
+        <v>0.1424137080579054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.67249642416995</v>
+        <v>0.2550626666666667</v>
       </c>
       <c r="N5">
-        <v>2.67249642416995</v>
+        <v>0.765188</v>
       </c>
       <c r="O5">
-        <v>0.7034654210965314</v>
+        <v>0.04671056503089221</v>
       </c>
       <c r="P5">
-        <v>0.7034654210965314</v>
+        <v>0.04671056503089221</v>
       </c>
       <c r="Q5">
-        <v>16.99272861419786</v>
+        <v>0.935485010486222</v>
       </c>
       <c r="R5">
-        <v>16.99272861419786</v>
+        <v>8.419365094375999</v>
       </c>
       <c r="S5">
-        <v>0.1926899470733638</v>
+        <v>0.006652224771529288</v>
       </c>
       <c r="T5">
-        <v>0.1926899470733638</v>
+        <v>0.006652224771529287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.864919676287</v>
+        <v>6.497702</v>
       </c>
       <c r="H6">
-        <v>12.864919676287</v>
+        <v>19.493106</v>
       </c>
       <c r="I6">
-        <v>0.5542138735738166</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="J6">
-        <v>0.5542138735738166</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.12654805480981</v>
+        <v>1.340345333333333</v>
       </c>
       <c r="N6">
-        <v>1.12654805480981</v>
+        <v>4.021036</v>
       </c>
       <c r="O6">
-        <v>0.2965345789034685</v>
+        <v>0.2454623746968832</v>
       </c>
       <c r="P6">
-        <v>0.2965345789034685</v>
+        <v>0.2454623746968832</v>
       </c>
       <c r="Q6">
-        <v>14.49295023660557</v>
+        <v>8.709164553090666</v>
       </c>
       <c r="R6">
-        <v>14.49295023660557</v>
+        <v>78.382480977816</v>
       </c>
       <c r="S6">
-        <v>0.1643435776226718</v>
+        <v>0.06193078406385412</v>
       </c>
       <c r="T6">
-        <v>0.1643435776226718</v>
+        <v>0.06193078406385413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.864919676287</v>
+        <v>6.497702</v>
       </c>
       <c r="H7">
-        <v>12.864919676287</v>
+        <v>19.493106</v>
       </c>
       <c r="I7">
-        <v>0.5542138735738166</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="J7">
-        <v>0.5542138735738166</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.67249642416995</v>
+        <v>2.693938333333334</v>
       </c>
       <c r="N7">
-        <v>2.67249642416995</v>
+        <v>8.081815000000001</v>
       </c>
       <c r="O7">
-        <v>0.7034654210965314</v>
+        <v>0.4933508433550188</v>
       </c>
       <c r="P7">
-        <v>0.7034654210965314</v>
+        <v>0.4933508433550189</v>
       </c>
       <c r="Q7">
-        <v>34.38145183211064</v>
+        <v>17.50440849637667</v>
       </c>
       <c r="R7">
-        <v>34.38145183211064</v>
+        <v>157.53967646739</v>
       </c>
       <c r="S7">
-        <v>0.3898702959511447</v>
+        <v>0.1244736778305435</v>
       </c>
       <c r="T7">
-        <v>0.3898702959511447</v>
+        <v>0.1244736778305435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8701852893013931</v>
+        <v>6.497702</v>
       </c>
       <c r="H8">
-        <v>0.8701852893013931</v>
+        <v>19.493106</v>
       </c>
       <c r="I8">
-        <v>0.03748711784027764</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="J8">
-        <v>0.03748711784027764</v>
+        <v>0.2523025540689536</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.12654805480981</v>
+        <v>1.171145666666667</v>
       </c>
       <c r="N8">
-        <v>1.12654805480981</v>
+        <v>3.513437</v>
       </c>
       <c r="O8">
-        <v>0.2965345789034685</v>
+        <v>0.2144762169172057</v>
       </c>
       <c r="P8">
-        <v>0.2965345789034685</v>
+        <v>0.2144762169172058</v>
       </c>
       <c r="Q8">
-        <v>0.9803055449865961</v>
+        <v>7.609755540591333</v>
       </c>
       <c r="R8">
-        <v>0.9803055449865961</v>
+        <v>68.487799865322</v>
       </c>
       <c r="S8">
-        <v>0.01111622670307143</v>
+        <v>0.05411289731525791</v>
       </c>
       <c r="T8">
-        <v>0.01111622670307143</v>
+        <v>0.05411289731525792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.497702</v>
+      </c>
+      <c r="H9">
+        <v>19.493106</v>
+      </c>
+      <c r="I9">
+        <v>0.2523025540689536</v>
+      </c>
+      <c r="J9">
+        <v>0.2523025540689536</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2550626666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.765188</v>
+      </c>
+      <c r="O9">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="P9">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="Q9">
+        <v>1.657321199325333</v>
+      </c>
+      <c r="R9">
+        <v>14.915890793928</v>
+      </c>
+      <c r="S9">
+        <v>0.01178519485929805</v>
+      </c>
+      <c r="T9">
+        <v>0.01178519485929805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.399313</v>
+      </c>
+      <c r="H10">
+        <v>43.197939</v>
+      </c>
+      <c r="I10">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="J10">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.340345333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.021036</v>
+      </c>
+      <c r="O10">
+        <v>0.2454623746968832</v>
+      </c>
+      <c r="P10">
+        <v>0.2454623746968832</v>
+      </c>
+      <c r="Q10">
+        <v>19.300051982756</v>
+      </c>
+      <c r="R10">
+        <v>173.700467844804</v>
+      </c>
+      <c r="S10">
+        <v>0.1372424811219178</v>
+      </c>
+      <c r="T10">
+        <v>0.1372424811219178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8701852893013931</v>
-      </c>
-      <c r="H9">
-        <v>0.8701852893013931</v>
-      </c>
-      <c r="I9">
-        <v>0.03748711784027764</v>
-      </c>
-      <c r="J9">
-        <v>0.03748711784027764</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.67249642416995</v>
-      </c>
-      <c r="N9">
-        <v>2.67249642416995</v>
-      </c>
-      <c r="O9">
-        <v>0.7034654210965314</v>
-      </c>
-      <c r="P9">
-        <v>0.7034654210965314</v>
-      </c>
-      <c r="Q9">
-        <v>2.325567074023267</v>
-      </c>
-      <c r="R9">
-        <v>2.325567074023267</v>
-      </c>
-      <c r="S9">
-        <v>0.02637089113720621</v>
-      </c>
-      <c r="T9">
-        <v>0.02637089113720621</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.399313</v>
+      </c>
+      <c r="H11">
+        <v>43.197939</v>
+      </c>
+      <c r="I11">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="J11">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.693938333333334</v>
+      </c>
+      <c r="N11">
+        <v>8.081815000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4933508433550188</v>
+      </c>
+      <c r="P11">
+        <v>0.4933508433550189</v>
+      </c>
+      <c r="Q11">
+        <v>38.790861264365</v>
+      </c>
+      <c r="R11">
+        <v>349.117751379285</v>
+      </c>
+      <c r="S11">
+        <v>0.275841435532617</v>
+      </c>
+      <c r="T11">
+        <v>0.275841435532617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.399313</v>
+      </c>
+      <c r="H12">
+        <v>43.197939</v>
+      </c>
+      <c r="I12">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="J12">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.171145666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.513437</v>
+      </c>
+      <c r="O12">
+        <v>0.2144762169172057</v>
+      </c>
+      <c r="P12">
+        <v>0.2144762169172058</v>
+      </c>
+      <c r="Q12">
+        <v>16.863693022927</v>
+      </c>
+      <c r="R12">
+        <v>151.773237206343</v>
+      </c>
+      <c r="S12">
+        <v>0.1199175563575027</v>
+      </c>
+      <c r="T12">
+        <v>0.1199175563575028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.399313</v>
+      </c>
+      <c r="H13">
+        <v>43.197939</v>
+      </c>
+      <c r="I13">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="J13">
+        <v>0.5591182000556945</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2550626666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.765188</v>
+      </c>
+      <c r="O13">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="P13">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="Q13">
+        <v>3.672727171948</v>
+      </c>
+      <c r="R13">
+        <v>33.054544547532</v>
+      </c>
+      <c r="S13">
+        <v>0.02611672704365691</v>
+      </c>
+      <c r="T13">
+        <v>0.02611672704365691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.188929333333334</v>
+      </c>
+      <c r="H14">
+        <v>3.566788</v>
+      </c>
+      <c r="I14">
+        <v>0.04616553781744659</v>
+      </c>
+      <c r="J14">
+        <v>0.04616553781744658</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.340345333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.021036</v>
+      </c>
+      <c r="O14">
+        <v>0.2454623746968832</v>
+      </c>
+      <c r="P14">
+        <v>0.2454623746968832</v>
+      </c>
+      <c r="Q14">
+        <v>1.593575883596445</v>
+      </c>
+      <c r="R14">
+        <v>14.342182952368</v>
+      </c>
+      <c r="S14">
+        <v>0.01133190254182921</v>
+      </c>
+      <c r="T14">
+        <v>0.01133190254182921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.188929333333334</v>
+      </c>
+      <c r="H15">
+        <v>3.566788</v>
+      </c>
+      <c r="I15">
+        <v>0.04616553781744659</v>
+      </c>
+      <c r="J15">
+        <v>0.04616553781744658</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.693938333333334</v>
+      </c>
+      <c r="N15">
+        <v>8.081815000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4933508433550188</v>
+      </c>
+      <c r="P15">
+        <v>0.4933508433550189</v>
+      </c>
+      <c r="Q15">
+        <v>3.202902306691112</v>
+      </c>
+      <c r="R15">
+        <v>28.82612076022</v>
+      </c>
+      <c r="S15">
+        <v>0.02277580701617529</v>
+      </c>
+      <c r="T15">
+        <v>0.02277580701617529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.188929333333334</v>
+      </c>
+      <c r="H16">
+        <v>3.566788</v>
+      </c>
+      <c r="I16">
+        <v>0.04616553781744659</v>
+      </c>
+      <c r="J16">
+        <v>0.04616553781744658</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.171145666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.513437</v>
+      </c>
+      <c r="O16">
+        <v>0.2144762169172057</v>
+      </c>
+      <c r="P16">
+        <v>0.2144762169172058</v>
+      </c>
+      <c r="Q16">
+        <v>1.392409436706222</v>
+      </c>
+      <c r="R16">
+        <v>12.531684930356</v>
+      </c>
+      <c r="S16">
+        <v>0.009901409903034139</v>
+      </c>
+      <c r="T16">
+        <v>0.009901409903034139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.188929333333334</v>
+      </c>
+      <c r="H17">
+        <v>3.566788</v>
+      </c>
+      <c r="I17">
+        <v>0.04616553781744659</v>
+      </c>
+      <c r="J17">
+        <v>0.04616553781744658</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2550626666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.765188</v>
+      </c>
+      <c r="O17">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="P17">
+        <v>0.04671056503089221</v>
+      </c>
+      <c r="Q17">
+        <v>0.3032514862382222</v>
+      </c>
+      <c r="R17">
+        <v>2.729263376144</v>
+      </c>
+      <c r="S17">
+        <v>0.002156418356407952</v>
+      </c>
+      <c r="T17">
+        <v>0.002156418356407952</v>
       </c>
     </row>
   </sheetData>
